--- a/Code/Results/Cases/Case_2_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021350512419622</v>
+        <v>1.062888517126526</v>
       </c>
       <c r="D2">
-        <v>1.038898104192196</v>
+        <v>1.064029046084612</v>
       </c>
       <c r="E2">
-        <v>1.032947690993212</v>
+        <v>1.066236055892689</v>
       </c>
       <c r="F2">
-        <v>1.04489567137528</v>
+        <v>1.076036832045149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057887490911526</v>
+        <v>1.048914487346738</v>
       </c>
       <c r="J2">
-        <v>1.042910861086589</v>
+        <v>1.067856720986985</v>
       </c>
       <c r="K2">
-        <v>1.049840874094562</v>
+        <v>1.066746087968209</v>
       </c>
       <c r="L2">
-        <v>1.043966329838496</v>
+        <v>1.06894714811469</v>
       </c>
       <c r="M2">
-        <v>1.055763061024104</v>
+        <v>1.07872182197649</v>
       </c>
       <c r="N2">
-        <v>1.044391914132879</v>
+        <v>1.069373200015664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029251414730204</v>
+        <v>1.064445966624521</v>
       </c>
       <c r="D3">
-        <v>1.044879189575155</v>
+        <v>1.065210333627218</v>
       </c>
       <c r="E3">
-        <v>1.038897770696144</v>
+        <v>1.067472314983088</v>
       </c>
       <c r="F3">
-        <v>1.051260165641404</v>
+        <v>1.077334726942754</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060589081662851</v>
+        <v>1.049332773152549</v>
       </c>
       <c r="J3">
-        <v>1.048975220631044</v>
+        <v>1.069065889754938</v>
       </c>
       <c r="K3">
-        <v>1.054968314597697</v>
+        <v>1.067741583439468</v>
       </c>
       <c r="L3">
-        <v>1.049056010187032</v>
+        <v>1.069997910833187</v>
       </c>
       <c r="M3">
-        <v>1.061276628159487</v>
+        <v>1.079835969544343</v>
       </c>
       <c r="N3">
-        <v>1.05046488576348</v>
+        <v>1.070584085941962</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03420835952368</v>
+        <v>1.065452247054846</v>
       </c>
       <c r="D4">
-        <v>1.048634316869002</v>
+        <v>1.065973249136241</v>
       </c>
       <c r="E4">
-        <v>1.04264331610996</v>
+        <v>1.068271595220965</v>
       </c>
       <c r="F4">
-        <v>1.055261854789409</v>
+        <v>1.078173562194179</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062269790174091</v>
+        <v>1.0496011911611</v>
       </c>
       <c r="J4">
-        <v>1.052775721573952</v>
+        <v>1.069846406364954</v>
       </c>
       <c r="K4">
-        <v>1.058179171097238</v>
+        <v>1.068383705152092</v>
       </c>
       <c r="L4">
-        <v>1.052252937245612</v>
+        <v>1.070676597471806</v>
       </c>
       <c r="M4">
-        <v>1.064736108973821</v>
+        <v>1.08055535313931</v>
       </c>
       <c r="N4">
-        <v>1.054270783853651</v>
+        <v>1.07136571097509</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.036257166078656</v>
+        <v>1.065874937700264</v>
       </c>
       <c r="D5">
-        <v>1.050186897269575</v>
+        <v>1.066293635071169</v>
       </c>
       <c r="E5">
-        <v>1.044194250443933</v>
+        <v>1.068607458563858</v>
       </c>
       <c r="F5">
-        <v>1.056917761810456</v>
+        <v>1.078525976705842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062960966768789</v>
+        <v>1.049713499890243</v>
       </c>
       <c r="J5">
-        <v>1.054345460051137</v>
+        <v>1.070174087390779</v>
       </c>
       <c r="K5">
-        <v>1.059504735158091</v>
+        <v>1.068653171688098</v>
       </c>
       <c r="L5">
-        <v>1.053575037618566</v>
+        <v>1.07096162771285</v>
       </c>
       <c r="M5">
-        <v>1.066165933980092</v>
+        <v>1.080857416985498</v>
       </c>
       <c r="N5">
-        <v>1.055842751539524</v>
+        <v>1.071693857345557</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.036599170283656</v>
+        <v>1.065945889045089</v>
       </c>
       <c r="D6">
-        <v>1.050446093612363</v>
+        <v>1.066347409265251</v>
       </c>
       <c r="E6">
-        <v>1.044453306651032</v>
+        <v>1.068663842590583</v>
       </c>
       <c r="F6">
-        <v>1.057194288987176</v>
+        <v>1.078585135205271</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063076136131116</v>
+        <v>1.049732325759813</v>
       </c>
       <c r="J6">
-        <v>1.054607428176366</v>
+        <v>1.070229080366193</v>
       </c>
       <c r="K6">
-        <v>1.059725915779827</v>
+        <v>1.068698388208524</v>
       </c>
       <c r="L6">
-        <v>1.053795773629359</v>
+        <v>1.0710094686811</v>
       </c>
       <c r="M6">
-        <v>1.066404606105814</v>
+        <v>1.080908113566002</v>
       </c>
       <c r="N6">
-        <v>1.056105091689539</v>
+        <v>1.071748928417305</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034235870992771</v>
+        <v>1.065457896432034</v>
       </c>
       <c r="D7">
-        <v>1.048655163135348</v>
+        <v>1.065977531493362</v>
       </c>
       <c r="E7">
-        <v>1.042664131179174</v>
+        <v>1.068276083643293</v>
       </c>
       <c r="F7">
-        <v>1.05528408295088</v>
+        <v>1.078178272078794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06227908525824</v>
+        <v>1.049602693932097</v>
       </c>
       <c r="J7">
-        <v>1.052796804489647</v>
+        <v>1.069850786608587</v>
       </c>
       <c r="K7">
-        <v>1.058196977087098</v>
+        <v>1.068387307663097</v>
       </c>
       <c r="L7">
-        <v>1.052270687706045</v>
+        <v>1.070680407192722</v>
       </c>
       <c r="M7">
-        <v>1.064755309085917</v>
+        <v>1.08055939075966</v>
       </c>
       <c r="N7">
-        <v>1.054291896709503</v>
+        <v>1.071370097439171</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024054189782793</v>
+        <v>1.063415178495811</v>
       </c>
       <c r="D8">
-        <v>1.040944180456232</v>
+        <v>1.064428572311171</v>
       </c>
       <c r="E8">
-        <v>1.034981037764952</v>
+        <v>1.066653995197583</v>
       </c>
       <c r="F8">
-        <v>1.047071662726025</v>
+        <v>1.076475669652132</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058814929699744</v>
+        <v>1.049056314352629</v>
       </c>
       <c r="J8">
-        <v>1.044986918738975</v>
+        <v>1.068265761437063</v>
       </c>
       <c r="K8">
-        <v>1.05159669146281</v>
+        <v>1.067082943547432</v>
       </c>
       <c r="L8">
-        <v>1.045707133239072</v>
+        <v>1.069302514878864</v>
       </c>
       <c r="M8">
-        <v>1.057649645591019</v>
+        <v>1.079098675982162</v>
       </c>
       <c r="N8">
-        <v>1.046470920025259</v>
+        <v>1.069782821350099</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004815706173873</v>
+        <v>1.059803854420089</v>
       </c>
       <c r="D9">
-        <v>1.026402396013557</v>
+        <v>1.061687730262989</v>
       </c>
       <c r="E9">
-        <v>1.020575185458836</v>
+        <v>1.063790398247757</v>
       </c>
       <c r="F9">
-        <v>1.031632747586165</v>
+        <v>1.073467659867943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052157368613116</v>
+        <v>1.048076258918646</v>
       </c>
       <c r="J9">
-        <v>1.030199548065688</v>
+        <v>1.065457956802723</v>
       </c>
       <c r="K9">
-        <v>1.039081158993573</v>
+        <v>1.064768727092218</v>
       </c>
       <c r="L9">
-        <v>1.033343037272794</v>
+        <v>1.066864907786669</v>
       </c>
       <c r="M9">
-        <v>1.044232637531874</v>
+        <v>1.076512669745449</v>
       </c>
       <c r="N9">
-        <v>1.03166254958948</v>
+        <v>1.066971029311119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9909493580130102</v>
+        <v>1.057387876464994</v>
       </c>
       <c r="D10">
-        <v>1.015951149421201</v>
+        <v>1.059852538083807</v>
       </c>
       <c r="E10">
-        <v>1.010283540053222</v>
+        <v>1.061877509533308</v>
       </c>
       <c r="F10">
-        <v>1.020571586985517</v>
+        <v>1.071456749678247</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047288455087019</v>
+        <v>1.047411136005879</v>
       </c>
       <c r="J10">
-        <v>1.019526724227989</v>
+        <v>1.063575774134568</v>
       </c>
       <c r="K10">
-        <v>1.030038252134941</v>
+        <v>1.063215024454911</v>
       </c>
       <c r="L10">
-        <v>1.024469571593717</v>
+        <v>1.065233129099982</v>
       </c>
       <c r="M10">
-        <v>1.034579089994439</v>
+        <v>1.074780271620991</v>
       </c>
       <c r="N10">
-        <v>1.020974569117743</v>
+        <v>1.065086173727686</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9846535516073945</v>
+        <v>1.056339620589929</v>
       </c>
       <c r="D11">
-        <v>1.011215784529395</v>
+        <v>1.059055919934429</v>
       </c>
       <c r="E11">
-        <v>1.00563656416758</v>
+        <v>1.0610482373758</v>
       </c>
       <c r="F11">
-        <v>1.015568649331648</v>
+        <v>1.070584609855161</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045062609049658</v>
+        <v>1.047120310165784</v>
       </c>
       <c r="J11">
-        <v>1.014678996482984</v>
+        <v>1.062758239065506</v>
       </c>
       <c r="K11">
-        <v>1.025929242461247</v>
+        <v>1.062539604279552</v>
       </c>
       <c r="L11">
-        <v>1.020452960268778</v>
+        <v>1.064524900882916</v>
       </c>
       <c r="M11">
-        <v>1.03020281718301</v>
+        <v>1.074028065964445</v>
       </c>
       <c r="N11">
-        <v>1.016119957043297</v>
+        <v>1.064267477665053</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9822667467053428</v>
+        <v>1.055949923261043</v>
       </c>
       <c r="D12">
-        <v>1.00942230983405</v>
+        <v>1.058759718654999</v>
       </c>
       <c r="E12">
-        <v>1.003879116974483</v>
+        <v>1.060740056202146</v>
       </c>
       <c r="F12">
-        <v>1.013675201815436</v>
+        <v>1.07026044127092</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044216635033615</v>
+        <v>1.047011857448378</v>
       </c>
       <c r="J12">
-        <v>1.01284104417068</v>
+        <v>1.062454181649686</v>
       </c>
       <c r="K12">
-        <v>1.024371192540823</v>
+        <v>1.062288318200809</v>
       </c>
       <c r="L12">
-        <v>1.018932374673462</v>
+        <v>1.064261579223853</v>
       </c>
       <c r="M12">
-        <v>1.028545013947647</v>
+        <v>1.073748347041193</v>
       </c>
       <c r="N12">
-        <v>1.014279394627894</v>
+        <v>1.063962988452827</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9827809868704119</v>
+        <v>1.056033529679236</v>
       </c>
       <c r="D13">
-        <v>1.009808632600218</v>
+        <v>1.058823268593199</v>
       </c>
       <c r="E13">
-        <v>1.004257561753122</v>
+        <v>1.060806169103432</v>
       </c>
       <c r="F13">
-        <v>1.014082996589163</v>
+        <v>1.070329986455389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044398994874806</v>
+        <v>1.047035140296108</v>
       </c>
       <c r="J13">
-        <v>1.013237036460376</v>
+        <v>1.062519420694578</v>
       </c>
       <c r="K13">
-        <v>1.02470688563501</v>
+        <v>1.062342238336558</v>
       </c>
       <c r="L13">
-        <v>1.019259884219629</v>
+        <v>1.064318074198666</v>
       </c>
       <c r="M13">
-        <v>1.028902127049454</v>
+        <v>1.0738083621057</v>
       </c>
       <c r="N13">
-        <v>1.014675949272062</v>
+        <v>1.064028320144645</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9844572701134203</v>
+        <v>1.056307414843236</v>
       </c>
       <c r="D14">
-        <v>1.011068259049376</v>
+        <v>1.059031442037466</v>
       </c>
       <c r="E14">
-        <v>1.005491949630424</v>
+        <v>1.061022766168385</v>
       </c>
       <c r="F14">
-        <v>1.015412872365625</v>
+        <v>1.07055781844279</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04499308176605</v>
+        <v>1.047111354158877</v>
       </c>
       <c r="J14">
-        <v>1.014527852128819</v>
+        <v>1.062733113551904</v>
       </c>
       <c r="K14">
-        <v>1.025801119011332</v>
+        <v>1.06251884118862</v>
       </c>
       <c r="L14">
-        <v>1.020327867695668</v>
+        <v>1.064503139847423</v>
       </c>
       <c r="M14">
-        <v>1.030066458193167</v>
+        <v>1.074004950796596</v>
       </c>
       <c r="N14">
-        <v>1.015968598046813</v>
+        <v>1.064242316470339</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9854835443946254</v>
+        <v>1.056476120721569</v>
       </c>
       <c r="D15">
-        <v>1.011839681198304</v>
+        <v>1.059159664385817</v>
       </c>
       <c r="E15">
-        <v>1.006248254735977</v>
+        <v>1.061156198385439</v>
       </c>
       <c r="F15">
-        <v>1.016227498062475</v>
+        <v>1.070698164302158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045356525314627</v>
+        <v>1.047158255359667</v>
       </c>
       <c r="J15">
-        <v>1.015318118819619</v>
+        <v>1.062864725077387</v>
       </c>
       <c r="K15">
-        <v>1.026471013029353</v>
+        <v>1.062627598199448</v>
       </c>
       <c r="L15">
-        <v>1.020982014117698</v>
+        <v>1.064617131066608</v>
       </c>
       <c r="M15">
-        <v>1.030779476567728</v>
+        <v>1.074126033494285</v>
       </c>
       <c r="N15">
-        <v>1.016759987006958</v>
+        <v>1.064374114899286</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9913606803277945</v>
+        <v>1.057457400232097</v>
       </c>
       <c r="D16">
-        <v>1.016260749487044</v>
+        <v>1.059905365020152</v>
       </c>
       <c r="E16">
-        <v>1.010587704699151</v>
+        <v>1.061932524503745</v>
       </c>
       <c r="F16">
-        <v>1.020898866547206</v>
+        <v>1.071514600639788</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047433573943641</v>
+        <v>1.047430377430518</v>
       </c>
       <c r="J16">
-        <v>1.019843413077993</v>
+        <v>1.063629977163614</v>
       </c>
       <c r="K16">
-        <v>1.030306654884619</v>
+        <v>1.063259793398936</v>
       </c>
       <c r="L16">
-        <v>1.024732266359571</v>
+        <v>1.065280096516227</v>
       </c>
       <c r="M16">
-        <v>1.034865165728486</v>
+        <v>1.074830149007311</v>
       </c>
       <c r="N16">
-        <v>1.021291707702238</v>
+        <v>1.06514045373125</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9949662310626546</v>
+        <v>1.058072356142015</v>
       </c>
       <c r="D17">
-        <v>1.01897576796937</v>
+        <v>1.060372592133009</v>
       </c>
       <c r="E17">
-        <v>1.013256884608475</v>
+        <v>1.06241922744539</v>
       </c>
       <c r="F17">
-        <v>1.023769918776437</v>
+        <v>1.072026349664164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048703955650579</v>
+        <v>1.047600314522871</v>
       </c>
       <c r="J17">
-        <v>1.022619233465445</v>
+        <v>1.064109315102579</v>
       </c>
       <c r="K17">
-        <v>1.032659067237564</v>
+        <v>1.063655637384861</v>
       </c>
       <c r="L17">
-        <v>1.027036397805997</v>
+        <v>1.065695509883389</v>
       </c>
       <c r="M17">
-        <v>1.037373627492673</v>
+        <v>1.075271264844998</v>
       </c>
       <c r="N17">
-        <v>1.024071470073031</v>
+        <v>1.065620472385069</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9970414856929206</v>
+        <v>1.058430845487375</v>
       </c>
       <c r="D18">
-        <v>1.020539363219759</v>
+        <v>1.060644928357698</v>
       </c>
       <c r="E18">
-        <v>1.014795580691823</v>
+        <v>1.062703018980935</v>
       </c>
       <c r="F18">
-        <v>1.025424194944756</v>
+        <v>1.072324709327114</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049433717334455</v>
+        <v>1.047699163750146</v>
       </c>
       <c r="J18">
-        <v>1.024216729953839</v>
+        <v>1.064388660468911</v>
       </c>
       <c r="K18">
-        <v>1.034012734800983</v>
+        <v>1.063886270549509</v>
       </c>
       <c r="L18">
-        <v>1.028363718513732</v>
+        <v>1.065937653921396</v>
       </c>
       <c r="M18">
-        <v>1.038818044555608</v>
+        <v>1.075528361327177</v>
       </c>
       <c r="N18">
-        <v>1.025671235189674</v>
+        <v>1.065900214453863</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9977445035508792</v>
+        <v>1.058553046774422</v>
       </c>
       <c r="D19">
-        <v>1.021069196520974</v>
+        <v>1.060737756025343</v>
       </c>
       <c r="E19">
-        <v>1.015317227410799</v>
+        <v>1.062799768773515</v>
       </c>
       <c r="F19">
-        <v>1.02598489377143</v>
+        <v>1.072426419573197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049680685533215</v>
+        <v>1.04773282269867</v>
       </c>
       <c r="J19">
-        <v>1.024757865155078</v>
+        <v>1.064483868793217</v>
       </c>
       <c r="K19">
-        <v>1.03447124716979</v>
+        <v>1.063964867262482</v>
       </c>
       <c r="L19">
-        <v>1.02881354714983</v>
+        <v>1.066020191873988</v>
       </c>
       <c r="M19">
-        <v>1.039307455613028</v>
+        <v>1.075615991019801</v>
       </c>
       <c r="N19">
-        <v>1.026213138864968</v>
+        <v>1.06599555798491</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9945822955138763</v>
+        <v>1.058006398367076</v>
       </c>
       <c r="D20">
-        <v>1.018686564366515</v>
+        <v>1.060322482725687</v>
       </c>
       <c r="E20">
-        <v>1.012972406960808</v>
+        <v>1.062367018594661</v>
       </c>
       <c r="F20">
-        <v>1.023464008891777</v>
+        <v>1.071971457834634</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048568827746963</v>
+        <v>1.047582110057409</v>
       </c>
       <c r="J20">
-        <v>1.022323669958327</v>
+        <v>1.064057912004324</v>
       </c>
       <c r="K20">
-        <v>1.032408603061459</v>
+        <v>1.063613193586158</v>
       </c>
       <c r="L20">
-        <v>1.026790924111297</v>
+        <v>1.065650956501205</v>
       </c>
       <c r="M20">
-        <v>1.037106449132255</v>
+        <v>1.075223957908489</v>
       </c>
       <c r="N20">
-        <v>1.023775486831832</v>
+        <v>1.065568996288519</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9839650176945314</v>
+        <v>1.056226771633162</v>
       </c>
       <c r="D21">
-        <v>1.010698310466208</v>
+        <v>1.058970148528619</v>
       </c>
       <c r="E21">
-        <v>1.005129342304653</v>
+        <v>1.06095898798762</v>
       </c>
       <c r="F21">
-        <v>1.0150222537629</v>
+        <v>1.070490733642948</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044818681234753</v>
+        <v>1.047088922887941</v>
       </c>
       <c r="J21">
-        <v>1.014148797187661</v>
+        <v>1.062670197114336</v>
       </c>
       <c r="K21">
-        <v>1.025479795668749</v>
+        <v>1.062466847276018</v>
       </c>
       <c r="L21">
-        <v>1.020014185002525</v>
+        <v>1.064448649684493</v>
       </c>
       <c r="M21">
-        <v>1.029724506484357</v>
+        <v>1.073947069104504</v>
       </c>
       <c r="N21">
-        <v>1.01558900480416</v>
+        <v>1.064179310684214</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9770075909749663</v>
+        <v>1.055105944661314</v>
       </c>
       <c r="D22">
-        <v>1.005474075029177</v>
+        <v>1.058118132951879</v>
       </c>
       <c r="E22">
-        <v>1.000015069995091</v>
+        <v>1.060072817762038</v>
       </c>
       <c r="F22">
-        <v>1.009509468472592</v>
+        <v>1.069558484784058</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042348834452464</v>
+        <v>1.046776364300809</v>
       </c>
       <c r="J22">
-        <v>1.008791198385851</v>
+        <v>1.06179543436547</v>
       </c>
       <c r="K22">
-        <v>1.02093786386021</v>
+        <v>1.061743748006319</v>
       </c>
       <c r="L22">
-        <v>1.015586228351853</v>
+        <v>1.063691238553622</v>
       </c>
       <c r="M22">
-        <v>1.024894865830597</v>
+        <v>1.073142405758549</v>
       </c>
       <c r="N22">
-        <v>1.010223797597527</v>
+        <v>1.063303305671908</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9807242372824597</v>
+        <v>1.055700300073919</v>
       </c>
       <c r="D23">
-        <v>1.008263779290591</v>
+        <v>1.05856997043004</v>
       </c>
       <c r="E23">
-        <v>1.002744596943666</v>
+        <v>1.060542679156847</v>
       </c>
       <c r="F23">
-        <v>1.012452484338915</v>
+        <v>1.070052808984471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043669330166995</v>
+        <v>1.046942292833554</v>
       </c>
       <c r="J23">
-        <v>1.011653224022111</v>
+        <v>1.062259378484042</v>
       </c>
       <c r="K23">
-        <v>1.023364226546444</v>
+        <v>1.06212730092347</v>
       </c>
       <c r="L23">
-        <v>1.01795032232982</v>
+        <v>1.06409289789748</v>
       </c>
       <c r="M23">
-        <v>1.027474032446376</v>
+        <v>1.073569148714777</v>
       </c>
       <c r="N23">
-        <v>1.013089887638469</v>
+        <v>1.063767908644343</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9947558650493098</v>
+        <v>1.05803620247712</v>
       </c>
       <c r="D24">
-        <v>1.018817304699054</v>
+        <v>1.060345125595566</v>
       </c>
       <c r="E24">
-        <v>1.013101006180859</v>
+        <v>1.062390609817946</v>
       </c>
       <c r="F24">
-        <v>1.023602299092086</v>
+        <v>1.0719962615067</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04862992082216</v>
+        <v>1.047590336712959</v>
       </c>
       <c r="J24">
-        <v>1.022457288869062</v>
+        <v>1.064081139607037</v>
       </c>
       <c r="K24">
-        <v>1.032521833870321</v>
+        <v>1.063632372902861</v>
       </c>
       <c r="L24">
-        <v>1.026901894350017</v>
+        <v>1.0656710887501</v>
       </c>
       <c r="M24">
-        <v>1.037227233196796</v>
+        <v>1.075245334491712</v>
       </c>
       <c r="N24">
-        <v>1.023909295496746</v>
+        <v>1.065592256877091</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009959147804077</v>
+        <v>1.060738917065878</v>
       </c>
       <c r="D25">
-        <v>1.030285903531509</v>
+        <v>1.062397684177743</v>
       </c>
       <c r="E25">
-        <v>1.024412265222104</v>
+        <v>1.06453136000199</v>
       </c>
       <c r="F25">
-        <v>1.035750057576484</v>
+        <v>1.074246260588754</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053949683749766</v>
+        <v>1.048331687529579</v>
       </c>
       <c r="J25">
-        <v>1.034155933268065</v>
+        <v>1.066185631997808</v>
       </c>
       <c r="K25">
-        <v>1.042431582252145</v>
+        <v>1.065368905450313</v>
       </c>
       <c r="L25">
-        <v>1.036643073809614</v>
+        <v>1.067496250458784</v>
       </c>
       <c r="M25">
-        <v>1.047817637813561</v>
+        <v>1.077182671789809</v>
       </c>
       <c r="N25">
-        <v>1.035624553312649</v>
+        <v>1.067699737888447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062888517126526</v>
+        <v>1.021350512419622</v>
       </c>
       <c r="D2">
-        <v>1.064029046084612</v>
+        <v>1.038898104192196</v>
       </c>
       <c r="E2">
-        <v>1.066236055892689</v>
+        <v>1.032947690993213</v>
       </c>
       <c r="F2">
-        <v>1.076036832045149</v>
+        <v>1.044895671375281</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048914487346738</v>
+        <v>1.057887490911526</v>
       </c>
       <c r="J2">
-        <v>1.067856720986985</v>
+        <v>1.042910861086589</v>
       </c>
       <c r="K2">
-        <v>1.066746087968209</v>
+        <v>1.049840874094563</v>
       </c>
       <c r="L2">
-        <v>1.06894714811469</v>
+        <v>1.043966329838496</v>
       </c>
       <c r="M2">
-        <v>1.07872182197649</v>
+        <v>1.055763061024105</v>
       </c>
       <c r="N2">
-        <v>1.069373200015664</v>
+        <v>1.044391914132879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.064445966624521</v>
+        <v>1.029251414730204</v>
       </c>
       <c r="D3">
-        <v>1.065210333627218</v>
+        <v>1.044879189575155</v>
       </c>
       <c r="E3">
-        <v>1.067472314983088</v>
+        <v>1.038897770696144</v>
       </c>
       <c r="F3">
-        <v>1.077334726942754</v>
+        <v>1.051260165641404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049332773152549</v>
+        <v>1.060589081662852</v>
       </c>
       <c r="J3">
-        <v>1.069065889754938</v>
+        <v>1.048975220631045</v>
       </c>
       <c r="K3">
-        <v>1.067741583439468</v>
+        <v>1.054968314597697</v>
       </c>
       <c r="L3">
-        <v>1.069997910833187</v>
+        <v>1.049056010187033</v>
       </c>
       <c r="M3">
-        <v>1.079835969544343</v>
+        <v>1.061276628159487</v>
       </c>
       <c r="N3">
-        <v>1.070584085941962</v>
+        <v>1.05046488576348</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065452247054846</v>
+        <v>1.03420835952368</v>
       </c>
       <c r="D4">
-        <v>1.065973249136241</v>
+        <v>1.048634316869002</v>
       </c>
       <c r="E4">
-        <v>1.068271595220965</v>
+        <v>1.04264331610996</v>
       </c>
       <c r="F4">
-        <v>1.078173562194179</v>
+        <v>1.05526185478941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0496011911611</v>
+        <v>1.062269790174091</v>
       </c>
       <c r="J4">
-        <v>1.069846406364954</v>
+        <v>1.052775721573953</v>
       </c>
       <c r="K4">
-        <v>1.068383705152092</v>
+        <v>1.058179171097238</v>
       </c>
       <c r="L4">
-        <v>1.070676597471806</v>
+        <v>1.052252937245612</v>
       </c>
       <c r="M4">
-        <v>1.08055535313931</v>
+        <v>1.064736108973821</v>
       </c>
       <c r="N4">
-        <v>1.07136571097509</v>
+        <v>1.054270783853651</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.065874937700264</v>
+        <v>1.036257166078657</v>
       </c>
       <c r="D5">
-        <v>1.066293635071169</v>
+        <v>1.050186897269576</v>
       </c>
       <c r="E5">
-        <v>1.068607458563858</v>
+        <v>1.044194250443934</v>
       </c>
       <c r="F5">
-        <v>1.078525976705842</v>
+        <v>1.056917761810458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049713499890243</v>
+        <v>1.06296096676879</v>
       </c>
       <c r="J5">
-        <v>1.070174087390779</v>
+        <v>1.054345460051139</v>
       </c>
       <c r="K5">
-        <v>1.068653171688098</v>
+        <v>1.059504735158092</v>
       </c>
       <c r="L5">
-        <v>1.07096162771285</v>
+        <v>1.053575037618566</v>
       </c>
       <c r="M5">
-        <v>1.080857416985498</v>
+        <v>1.066165933980093</v>
       </c>
       <c r="N5">
-        <v>1.071693857345557</v>
+        <v>1.055842751539526</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.065945889045089</v>
+        <v>1.036599170283657</v>
       </c>
       <c r="D6">
-        <v>1.066347409265251</v>
+        <v>1.050446093612365</v>
       </c>
       <c r="E6">
-        <v>1.068663842590583</v>
+        <v>1.044453306651034</v>
       </c>
       <c r="F6">
-        <v>1.078585135205271</v>
+        <v>1.057194288987178</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049732325759813</v>
+        <v>1.063076136131117</v>
       </c>
       <c r="J6">
-        <v>1.070229080366193</v>
+        <v>1.054607428176368</v>
       </c>
       <c r="K6">
-        <v>1.068698388208524</v>
+        <v>1.059725915779828</v>
       </c>
       <c r="L6">
-        <v>1.0710094686811</v>
+        <v>1.053795773629361</v>
       </c>
       <c r="M6">
-        <v>1.080908113566002</v>
+        <v>1.066404606105816</v>
       </c>
       <c r="N6">
-        <v>1.071748928417305</v>
+        <v>1.056105091689541</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065457896432034</v>
+        <v>1.034235870992771</v>
       </c>
       <c r="D7">
-        <v>1.065977531493362</v>
+        <v>1.048655163135348</v>
       </c>
       <c r="E7">
-        <v>1.068276083643293</v>
+        <v>1.042664131179174</v>
       </c>
       <c r="F7">
-        <v>1.078178272078794</v>
+        <v>1.055284082950879</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049602693932097</v>
+        <v>1.062279085258239</v>
       </c>
       <c r="J7">
-        <v>1.069850786608587</v>
+        <v>1.052796804489647</v>
       </c>
       <c r="K7">
-        <v>1.068387307663097</v>
+        <v>1.058196977087097</v>
       </c>
       <c r="L7">
-        <v>1.070680407192722</v>
+        <v>1.052270687706045</v>
       </c>
       <c r="M7">
-        <v>1.08055939075966</v>
+        <v>1.064755309085916</v>
       </c>
       <c r="N7">
-        <v>1.071370097439171</v>
+        <v>1.054291896709503</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.063415178495811</v>
+        <v>1.024054189782792</v>
       </c>
       <c r="D8">
-        <v>1.064428572311171</v>
+        <v>1.04094418045623</v>
       </c>
       <c r="E8">
-        <v>1.066653995197583</v>
+        <v>1.034981037764951</v>
       </c>
       <c r="F8">
-        <v>1.076475669652132</v>
+        <v>1.047071662726024</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049056314352629</v>
+        <v>1.058814929699744</v>
       </c>
       <c r="J8">
-        <v>1.068265761437063</v>
+        <v>1.044986918738974</v>
       </c>
       <c r="K8">
-        <v>1.067082943547432</v>
+        <v>1.051596691462809</v>
       </c>
       <c r="L8">
-        <v>1.069302514878864</v>
+        <v>1.045707133239071</v>
       </c>
       <c r="M8">
-        <v>1.079098675982162</v>
+        <v>1.057649645591018</v>
       </c>
       <c r="N8">
-        <v>1.069782821350099</v>
+        <v>1.046470920025258</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.059803854420089</v>
+        <v>1.004815706173874</v>
       </c>
       <c r="D9">
-        <v>1.061687730262989</v>
+        <v>1.026402396013558</v>
       </c>
       <c r="E9">
-        <v>1.063790398247757</v>
+        <v>1.020575185458836</v>
       </c>
       <c r="F9">
-        <v>1.073467659867943</v>
+        <v>1.031632747586166</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048076258918646</v>
+        <v>1.052157368613116</v>
       </c>
       <c r="J9">
-        <v>1.065457956802723</v>
+        <v>1.030199548065688</v>
       </c>
       <c r="K9">
-        <v>1.064768727092218</v>
+        <v>1.039081158993574</v>
       </c>
       <c r="L9">
-        <v>1.066864907786669</v>
+        <v>1.033343037272795</v>
       </c>
       <c r="M9">
-        <v>1.076512669745449</v>
+        <v>1.044232637531874</v>
       </c>
       <c r="N9">
-        <v>1.066971029311119</v>
+        <v>1.031662549589481</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057387876464994</v>
+        <v>0.9909493580130124</v>
       </c>
       <c r="D10">
-        <v>1.059852538083807</v>
+        <v>1.015951149421203</v>
       </c>
       <c r="E10">
-        <v>1.061877509533308</v>
+        <v>1.010283540053224</v>
       </c>
       <c r="F10">
-        <v>1.071456749678247</v>
+        <v>1.020571586985519</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047411136005879</v>
+        <v>1.04728845508702</v>
       </c>
       <c r="J10">
-        <v>1.063575774134568</v>
+        <v>1.019526724227991</v>
       </c>
       <c r="K10">
-        <v>1.063215024454911</v>
+        <v>1.030038252134943</v>
       </c>
       <c r="L10">
-        <v>1.065233129099982</v>
+        <v>1.024469571593718</v>
       </c>
       <c r="M10">
-        <v>1.074780271620991</v>
+        <v>1.034579089994441</v>
       </c>
       <c r="N10">
-        <v>1.065086173727686</v>
+        <v>1.020974569117745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056339620589929</v>
+        <v>0.9846535516073948</v>
       </c>
       <c r="D11">
-        <v>1.059055919934429</v>
+        <v>1.011215784529396</v>
       </c>
       <c r="E11">
-        <v>1.0610482373758</v>
+        <v>1.005636564167579</v>
       </c>
       <c r="F11">
-        <v>1.070584609855161</v>
+        <v>1.015568649331647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047120310165784</v>
+        <v>1.045062609049658</v>
       </c>
       <c r="J11">
-        <v>1.062758239065506</v>
+        <v>1.014678996482984</v>
       </c>
       <c r="K11">
-        <v>1.062539604279552</v>
+        <v>1.025929242461247</v>
       </c>
       <c r="L11">
-        <v>1.064524900882916</v>
+        <v>1.020452960268777</v>
       </c>
       <c r="M11">
-        <v>1.074028065964445</v>
+        <v>1.030202817183009</v>
       </c>
       <c r="N11">
-        <v>1.064267477665053</v>
+        <v>1.016119957043297</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.055949923261043</v>
+        <v>0.9822667467053432</v>
       </c>
       <c r="D12">
-        <v>1.058759718654999</v>
+        <v>1.00942230983405</v>
       </c>
       <c r="E12">
-        <v>1.060740056202146</v>
+        <v>1.003879116974483</v>
       </c>
       <c r="F12">
-        <v>1.07026044127092</v>
+        <v>1.013675201815436</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047011857448378</v>
+        <v>1.044216635033615</v>
       </c>
       <c r="J12">
-        <v>1.062454181649686</v>
+        <v>1.012841044170681</v>
       </c>
       <c r="K12">
-        <v>1.062288318200809</v>
+        <v>1.024371192540823</v>
       </c>
       <c r="L12">
-        <v>1.064261579223853</v>
+        <v>1.018932374673462</v>
       </c>
       <c r="M12">
-        <v>1.073748347041193</v>
+        <v>1.028545013947648</v>
       </c>
       <c r="N12">
-        <v>1.063962988452827</v>
+        <v>1.014279394627895</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056033529679236</v>
+        <v>0.98278098687041</v>
       </c>
       <c r="D13">
-        <v>1.058823268593199</v>
+        <v>1.009808632600216</v>
       </c>
       <c r="E13">
-        <v>1.060806169103432</v>
+        <v>1.004257561753121</v>
       </c>
       <c r="F13">
-        <v>1.070329986455389</v>
+        <v>1.014082996589162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047035140296108</v>
+        <v>1.044398994874805</v>
       </c>
       <c r="J13">
-        <v>1.062519420694578</v>
+        <v>1.013237036460374</v>
       </c>
       <c r="K13">
-        <v>1.062342238336558</v>
+        <v>1.024706885635009</v>
       </c>
       <c r="L13">
-        <v>1.064318074198666</v>
+        <v>1.019259884219628</v>
       </c>
       <c r="M13">
-        <v>1.0738083621057</v>
+        <v>1.028902127049452</v>
       </c>
       <c r="N13">
-        <v>1.064028320144645</v>
+        <v>1.01467594927206</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056307414843236</v>
+        <v>0.9844572701134199</v>
       </c>
       <c r="D14">
-        <v>1.059031442037466</v>
+        <v>1.011068259049376</v>
       </c>
       <c r="E14">
-        <v>1.061022766168385</v>
+        <v>1.005491949630424</v>
       </c>
       <c r="F14">
-        <v>1.07055781844279</v>
+        <v>1.015412872365625</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047111354158877</v>
+        <v>1.04499308176605</v>
       </c>
       <c r="J14">
-        <v>1.062733113551904</v>
+        <v>1.014527852128819</v>
       </c>
       <c r="K14">
-        <v>1.06251884118862</v>
+        <v>1.025801119011332</v>
       </c>
       <c r="L14">
-        <v>1.064503139847423</v>
+        <v>1.020327867695668</v>
       </c>
       <c r="M14">
-        <v>1.074004950796596</v>
+        <v>1.030066458193166</v>
       </c>
       <c r="N14">
-        <v>1.064242316470339</v>
+        <v>1.015968598046812</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.056476120721569</v>
+        <v>0.9854835443946268</v>
       </c>
       <c r="D15">
-        <v>1.059159664385817</v>
+        <v>1.011839681198305</v>
       </c>
       <c r="E15">
-        <v>1.061156198385439</v>
+        <v>1.006248254735977</v>
       </c>
       <c r="F15">
-        <v>1.070698164302158</v>
+        <v>1.016227498062476</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047158255359667</v>
+        <v>1.045356525314627</v>
       </c>
       <c r="J15">
-        <v>1.062864725077387</v>
+        <v>1.01531811881962</v>
       </c>
       <c r="K15">
-        <v>1.062627598199448</v>
+        <v>1.026471013029354</v>
       </c>
       <c r="L15">
-        <v>1.064617131066608</v>
+        <v>1.020982014117698</v>
       </c>
       <c r="M15">
-        <v>1.074126033494285</v>
+        <v>1.030779476567728</v>
       </c>
       <c r="N15">
-        <v>1.064374114899286</v>
+        <v>1.01675998700696</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057457400232097</v>
+        <v>0.9913606803277922</v>
       </c>
       <c r="D16">
-        <v>1.059905365020152</v>
+        <v>1.016260749487042</v>
       </c>
       <c r="E16">
-        <v>1.061932524503745</v>
+        <v>1.01058770469915</v>
       </c>
       <c r="F16">
-        <v>1.071514600639788</v>
+        <v>1.020898866547204</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047430377430518</v>
+        <v>1.04743357394364</v>
       </c>
       <c r="J16">
-        <v>1.063629977163614</v>
+        <v>1.019843413077991</v>
       </c>
       <c r="K16">
-        <v>1.063259793398936</v>
+        <v>1.030306654884618</v>
       </c>
       <c r="L16">
-        <v>1.065280096516227</v>
+        <v>1.024732266359571</v>
       </c>
       <c r="M16">
-        <v>1.074830149007311</v>
+        <v>1.034865165728485</v>
       </c>
       <c r="N16">
-        <v>1.06514045373125</v>
+        <v>1.021291707702236</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058072356142015</v>
+        <v>0.9949662310626546</v>
       </c>
       <c r="D17">
-        <v>1.060372592133009</v>
+        <v>1.01897576796937</v>
       </c>
       <c r="E17">
-        <v>1.06241922744539</v>
+        <v>1.013256884608475</v>
       </c>
       <c r="F17">
-        <v>1.072026349664164</v>
+        <v>1.023769918776437</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047600314522871</v>
+        <v>1.048703955650579</v>
       </c>
       <c r="J17">
-        <v>1.064109315102579</v>
+        <v>1.022619233465445</v>
       </c>
       <c r="K17">
-        <v>1.063655637384861</v>
+        <v>1.032659067237564</v>
       </c>
       <c r="L17">
-        <v>1.065695509883389</v>
+        <v>1.027036397805997</v>
       </c>
       <c r="M17">
-        <v>1.075271264844998</v>
+        <v>1.037373627492673</v>
       </c>
       <c r="N17">
-        <v>1.065620472385069</v>
+        <v>1.024071470073031</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058430845487375</v>
+        <v>0.9970414856929212</v>
       </c>
       <c r="D18">
-        <v>1.060644928357698</v>
+        <v>1.020539363219759</v>
       </c>
       <c r="E18">
-        <v>1.062703018980935</v>
+        <v>1.014795580691823</v>
       </c>
       <c r="F18">
-        <v>1.072324709327114</v>
+        <v>1.025424194944757</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047699163750146</v>
+        <v>1.049433717334456</v>
       </c>
       <c r="J18">
-        <v>1.064388660468911</v>
+        <v>1.024216729953839</v>
       </c>
       <c r="K18">
-        <v>1.063886270549509</v>
+        <v>1.034012734800983</v>
       </c>
       <c r="L18">
-        <v>1.065937653921396</v>
+        <v>1.028363718513732</v>
       </c>
       <c r="M18">
-        <v>1.075528361327177</v>
+        <v>1.038818044555608</v>
       </c>
       <c r="N18">
-        <v>1.065900214453863</v>
+        <v>1.025671235189675</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058553046774422</v>
+        <v>0.9977445035508801</v>
       </c>
       <c r="D19">
-        <v>1.060737756025343</v>
+        <v>1.021069196520975</v>
       </c>
       <c r="E19">
-        <v>1.062799768773515</v>
+        <v>1.0153172274108</v>
       </c>
       <c r="F19">
-        <v>1.072426419573197</v>
+        <v>1.025984893771431</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04773282269867</v>
+        <v>1.049680685533215</v>
       </c>
       <c r="J19">
-        <v>1.064483868793217</v>
+        <v>1.024757865155079</v>
       </c>
       <c r="K19">
-        <v>1.063964867262482</v>
+        <v>1.034471247169791</v>
       </c>
       <c r="L19">
-        <v>1.066020191873988</v>
+        <v>1.028813547149831</v>
       </c>
       <c r="M19">
-        <v>1.075615991019801</v>
+        <v>1.039307455613029</v>
       </c>
       <c r="N19">
-        <v>1.06599555798491</v>
+        <v>1.026213138864969</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058006398367076</v>
+        <v>0.9945822955138772</v>
       </c>
       <c r="D20">
-        <v>1.060322482725687</v>
+        <v>1.018686564366516</v>
       </c>
       <c r="E20">
-        <v>1.062367018594661</v>
+        <v>1.012972406960809</v>
       </c>
       <c r="F20">
-        <v>1.071971457834634</v>
+        <v>1.023464008891778</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047582110057409</v>
+        <v>1.048568827746963</v>
       </c>
       <c r="J20">
-        <v>1.064057912004324</v>
+        <v>1.022323669958328</v>
       </c>
       <c r="K20">
-        <v>1.063613193586158</v>
+        <v>1.03240860306146</v>
       </c>
       <c r="L20">
-        <v>1.065650956501205</v>
+        <v>1.026790924111297</v>
       </c>
       <c r="M20">
-        <v>1.075223957908489</v>
+        <v>1.037106449132256</v>
       </c>
       <c r="N20">
-        <v>1.065568996288519</v>
+        <v>1.023775486831833</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056226771633162</v>
+        <v>0.9839650176945304</v>
       </c>
       <c r="D21">
-        <v>1.058970148528619</v>
+        <v>1.010698310466208</v>
       </c>
       <c r="E21">
-        <v>1.06095898798762</v>
+        <v>1.005129342304653</v>
       </c>
       <c r="F21">
-        <v>1.070490733642948</v>
+        <v>1.015022253762899</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047088922887941</v>
+        <v>1.044818681234753</v>
       </c>
       <c r="J21">
-        <v>1.062670197114336</v>
+        <v>1.01414879718766</v>
       </c>
       <c r="K21">
-        <v>1.062466847276018</v>
+        <v>1.025479795668749</v>
       </c>
       <c r="L21">
-        <v>1.064448649684493</v>
+        <v>1.020014185002524</v>
       </c>
       <c r="M21">
-        <v>1.073947069104504</v>
+        <v>1.029724506484357</v>
       </c>
       <c r="N21">
-        <v>1.064179310684214</v>
+        <v>1.01558900480416</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055105944661314</v>
+        <v>0.9770075909749656</v>
       </c>
       <c r="D22">
-        <v>1.058118132951879</v>
+        <v>1.005474075029176</v>
       </c>
       <c r="E22">
-        <v>1.060072817762038</v>
+        <v>1.000015069995091</v>
       </c>
       <c r="F22">
-        <v>1.069558484784058</v>
+        <v>1.009509468472592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046776364300809</v>
+        <v>1.042348834452463</v>
       </c>
       <c r="J22">
-        <v>1.06179543436547</v>
+        <v>1.00879119838585</v>
       </c>
       <c r="K22">
-        <v>1.061743748006319</v>
+        <v>1.02093786386021</v>
       </c>
       <c r="L22">
-        <v>1.063691238553622</v>
+        <v>1.015586228351854</v>
       </c>
       <c r="M22">
-        <v>1.073142405758549</v>
+        <v>1.024894865830597</v>
       </c>
       <c r="N22">
-        <v>1.063303305671908</v>
+        <v>1.010223797597526</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.055700300073919</v>
+        <v>0.9807242372824608</v>
       </c>
       <c r="D23">
-        <v>1.05856997043004</v>
+        <v>1.008263779290592</v>
       </c>
       <c r="E23">
-        <v>1.060542679156847</v>
+        <v>1.002744596943666</v>
       </c>
       <c r="F23">
-        <v>1.070052808984471</v>
+        <v>1.012452484338916</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046942292833554</v>
+        <v>1.043669330166995</v>
       </c>
       <c r="J23">
-        <v>1.062259378484042</v>
+        <v>1.011653224022112</v>
       </c>
       <c r="K23">
-        <v>1.06212730092347</v>
+        <v>1.023364226546445</v>
       </c>
       <c r="L23">
-        <v>1.06409289789748</v>
+        <v>1.01795032232982</v>
       </c>
       <c r="M23">
-        <v>1.073569148714777</v>
+        <v>1.027474032446377</v>
       </c>
       <c r="N23">
-        <v>1.063767908644343</v>
+        <v>1.01308988763847</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05803620247712</v>
+        <v>0.9947558650493088</v>
       </c>
       <c r="D24">
-        <v>1.060345125595566</v>
+        <v>1.018817304699053</v>
       </c>
       <c r="E24">
-        <v>1.062390609817946</v>
+        <v>1.013101006180859</v>
       </c>
       <c r="F24">
-        <v>1.0719962615067</v>
+        <v>1.023602299092085</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047590336712959</v>
+        <v>1.048629920822159</v>
       </c>
       <c r="J24">
-        <v>1.064081139607037</v>
+        <v>1.022457288869061</v>
       </c>
       <c r="K24">
-        <v>1.063632372902861</v>
+        <v>1.032521833870321</v>
       </c>
       <c r="L24">
-        <v>1.0656710887501</v>
+        <v>1.026901894350017</v>
       </c>
       <c r="M24">
-        <v>1.075245334491712</v>
+        <v>1.037227233196795</v>
       </c>
       <c r="N24">
-        <v>1.065592256877091</v>
+        <v>1.023909295496745</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060738917065878</v>
+        <v>1.009959147804077</v>
       </c>
       <c r="D25">
-        <v>1.062397684177743</v>
+        <v>1.030285903531509</v>
       </c>
       <c r="E25">
-        <v>1.06453136000199</v>
+        <v>1.024412265222105</v>
       </c>
       <c r="F25">
-        <v>1.074246260588754</v>
+        <v>1.035750057576484</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048331687529579</v>
+        <v>1.053949683749766</v>
       </c>
       <c r="J25">
-        <v>1.066185631997808</v>
+        <v>1.034155933268065</v>
       </c>
       <c r="K25">
-        <v>1.065368905450313</v>
+        <v>1.042431582252146</v>
       </c>
       <c r="L25">
-        <v>1.067496250458784</v>
+        <v>1.036643073809615</v>
       </c>
       <c r="M25">
-        <v>1.077182671789809</v>
+        <v>1.047817637813561</v>
       </c>
       <c r="N25">
-        <v>1.067699737888447</v>
+        <v>1.035624553312649</v>
       </c>
     </row>
   </sheetData>
